--- a/techniqo/data_new_ticker/DIXON.xlsx
+++ b/techniqo/data_new_ticker/DIXON.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G741"/>
+  <dimension ref="A1:G743"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26321,6 +26321,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B742" t="n">
+        <v>9950</v>
+      </c>
+      <c r="C742" t="n">
+        <v>10168.95</v>
+      </c>
+      <c r="D742" t="n">
+        <v>9843.549999999999</v>
+      </c>
+      <c r="E742" t="n">
+        <v>10005.15</v>
+      </c>
+      <c r="F742" t="n">
+        <v>70238</v>
+      </c>
+      <c r="G742" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B743" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C743" t="n">
+        <v>10199.9</v>
+      </c>
+      <c r="D743" t="n">
+        <v>9852</v>
+      </c>
+      <c r="E743" t="n">
+        <v>9986.200000000001</v>
+      </c>
+      <c r="F743" t="n">
+        <v>45997</v>
+      </c>
+      <c r="G743" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/DIXON.xlsx
+++ b/techniqo/data_new_ticker/DIXON.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G743"/>
+  <dimension ref="A1:G745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26371,6 +26371,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B744" t="n">
+        <v>9937</v>
+      </c>
+      <c r="C744" t="n">
+        <v>9995</v>
+      </c>
+      <c r="D744" t="n">
+        <v>9706.049999999999</v>
+      </c>
+      <c r="E744" t="n">
+        <v>9742.700000000001</v>
+      </c>
+      <c r="F744" t="n">
+        <v>38882</v>
+      </c>
+      <c r="G744" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B745" t="n">
+        <v>9800</v>
+      </c>
+      <c r="C745" t="n">
+        <v>9945</v>
+      </c>
+      <c r="D745" t="n">
+        <v>9306.049999999999</v>
+      </c>
+      <c r="E745" t="n">
+        <v>9400.549999999999</v>
+      </c>
+      <c r="F745" t="n">
+        <v>151199</v>
+      </c>
+      <c r="G745" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
